--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>0.05303530962799999</v>
+        <v>0.090356968048</v>
       </c>
       <c r="R2">
-        <v>0.4773177866519999</v>
+        <v>0.8132127124320001</v>
       </c>
       <c r="S2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="T2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
         <v>0.012427993412</v>
@@ -638,10 +638,10 @@
         <v>0.111851940708</v>
       </c>
       <c r="S3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="T3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.017458015572</v>
+        <v>0.048541377476</v>
       </c>
       <c r="R4">
-        <v>0.157122140148</v>
+        <v>0.436872397284</v>
       </c>
       <c r="S4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="T4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.027060607304</v>
+        <v>0.024645583588</v>
       </c>
       <c r="R5">
-        <v>0.243545465736</v>
+        <v>0.221810252292</v>
       </c>
       <c r="S5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="T5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.018816941048</v>
+        <v>0.02576573166</v>
       </c>
       <c r="R6">
-        <v>0.169352469432</v>
+        <v>0.23189158494</v>
       </c>
       <c r="S6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="T6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
     </row>
   </sheetData>
